--- a/paper/data/regular/8node-final-20201127.xlsx
+++ b/paper/data/regular/8node-final-20201127.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F478DC2-B326-8A40-829B-6BAD70A961F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD1CFA0-A39D-7649-A11B-98C89E745360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
   </bookViews>
   <sheets>
     <sheet name="with THP" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="31">
   <si>
     <t>pthread</t>
   </si>
@@ -119,23 +119,20 @@
     <t>memory(KB)</t>
   </si>
   <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
     <t>memory(MB)</t>
   </si>
   <si>
     <t>mimalloc</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,23 +191,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,8 +245,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E52C62D-7A23-7E4D-81E0-AC790BE30E7F}">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="F54" zoomScale="139" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -613,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1223,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1231,35 +1212,35 @@
         <v>7</v>
       </c>
       <c r="B24" s="1">
-        <f>B2/B2</f>
+        <f t="shared" ref="B24:B42" si="0">B2/B2</f>
         <v>1</v>
       </c>
       <c r="C24" s="4">
-        <f>C2/B2</f>
+        <f t="shared" ref="C24:C42" si="1">C2/B2</f>
         <v>0.99948625738505015</v>
       </c>
       <c r="D24" s="4">
-        <f>D2/B2</f>
+        <f t="shared" ref="D24:D42" si="2">D2/B2</f>
         <v>1.0049319291035193</v>
       </c>
       <c r="E24" s="4">
-        <f>E2/B2</f>
+        <f t="shared" ref="E24:E42" si="3">E2/B2</f>
         <v>1.0047264320575391</v>
       </c>
       <c r="F24" s="4">
-        <f>F2/B2</f>
+        <f t="shared" ref="F24:F42" si="4">F2/B2</f>
         <v>1.0017980991523248</v>
       </c>
       <c r="G24" s="4">
-        <f>G2/B2</f>
+        <f t="shared" ref="G24:G42" si="5">G2/B2</f>
         <v>1.0022604675057796</v>
       </c>
       <c r="H24" s="4">
-        <f>H2/B2</f>
+        <f t="shared" ref="H24:H41" si="6">H2/B2</f>
         <v>0.99794502954020037</v>
       </c>
       <c r="I24" s="4">
-        <f>I2/B2</f>
+        <f t="shared" ref="I24:I42" si="7">I2/B2</f>
         <v>1.005445671718469</v>
       </c>
     </row>
@@ -1268,35 +1249,35 @@
         <v>8</v>
       </c>
       <c r="B25" s="1">
-        <f>B3/B3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C25" s="4">
-        <f>C3/B3</f>
+        <f t="shared" si="1"/>
         <v>0.9114542440896799</v>
       </c>
       <c r="D25" s="4">
-        <f>D3/B3</f>
+        <f t="shared" si="2"/>
         <v>0.99031667102852661</v>
       </c>
       <c r="E25" s="4">
-        <f>E3/B3</f>
+        <f t="shared" si="3"/>
         <v>1.0904649742650268</v>
       </c>
       <c r="F25" s="4">
-        <f>F3/B3</f>
+        <f t="shared" si="4"/>
         <v>0.97339265462793334</v>
       </c>
       <c r="G25" s="4">
-        <f>G3/B3</f>
+        <f t="shared" si="5"/>
         <v>1.0419610922097182</v>
       </c>
       <c r="H25" s="4">
-        <f>H3/B3</f>
+        <f t="shared" si="6"/>
         <v>1.0402163482508942</v>
       </c>
       <c r="I25" s="4">
-        <f>I3/B3</f>
+        <f t="shared" si="7"/>
         <v>0.95489836866439848</v>
       </c>
     </row>
@@ -1305,35 +1286,35 @@
         <v>9</v>
       </c>
       <c r="B26" s="1">
-        <f>B4/B4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C26" s="4">
-        <f>C4/B4</f>
+        <f t="shared" si="1"/>
         <v>0.74861097572862856</v>
       </c>
       <c r="D26" s="4">
-        <f>D4/B4</f>
+        <f t="shared" si="2"/>
         <v>1.108587581635637</v>
       </c>
       <c r="E26" s="4">
-        <f>E4/B4</f>
+        <f t="shared" si="3"/>
         <v>1.0740812944731455</v>
       </c>
       <c r="F26" s="4">
-        <f>F4/B4</f>
+        <f t="shared" si="4"/>
         <v>1.0326867465964844</v>
       </c>
       <c r="G26" s="4">
-        <f>G4/B4</f>
+        <f t="shared" si="5"/>
         <v>0.97394157975111295</v>
       </c>
       <c r="H26" s="4">
-        <f>H4/B4</f>
+        <f t="shared" si="6"/>
         <v>1.1863404490366183</v>
       </c>
       <c r="I26" s="4">
-        <f>I4/B4</f>
+        <f t="shared" si="7"/>
         <v>0.77876336225103171</v>
       </c>
     </row>
@@ -1342,35 +1323,35 @@
         <v>10</v>
       </c>
       <c r="B27" s="1">
-        <f>B5/B5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C27" s="4">
-        <f>C5/B5</f>
+        <f t="shared" si="1"/>
         <v>0.75418486168183185</v>
       </c>
       <c r="D27" s="4">
-        <f>D5/B5</f>
+        <f t="shared" si="2"/>
         <v>0.89610625922796305</v>
       </c>
       <c r="E27" s="4">
-        <f>E5/B5</f>
+        <f t="shared" si="3"/>
         <v>1.2909388646711701</v>
       </c>
       <c r="F27" s="4">
-        <f>F5/B5</f>
+        <f t="shared" si="4"/>
         <v>0.95160116462177591</v>
       </c>
       <c r="G27" s="4">
-        <f>G5/B5</f>
+        <f t="shared" si="5"/>
         <v>0.98453420683908799</v>
       </c>
       <c r="H27" s="4">
-        <f>H5/B5</f>
+        <f t="shared" si="6"/>
         <v>0.95887918500129254</v>
       </c>
       <c r="I27" s="4">
-        <f>I5/B5</f>
+        <f t="shared" si="7"/>
         <v>0.96470160130490568</v>
       </c>
     </row>
@@ -1379,35 +1360,35 @@
         <v>11</v>
       </c>
       <c r="B28" s="1">
-        <f>B6/B6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C28" s="4">
-        <f>C6/B6</f>
+        <f t="shared" si="1"/>
         <v>0.97902717605356437</v>
       </c>
       <c r="D28" s="4">
-        <f>D6/B6</f>
+        <f t="shared" si="2"/>
         <v>1.0198433843801404</v>
       </c>
       <c r="E28" s="4">
-        <f>E6/B6</f>
+        <f t="shared" si="3"/>
         <v>0.98342909436322778</v>
       </c>
       <c r="F28" s="4">
-        <f>F6/B6</f>
+        <f t="shared" si="4"/>
         <v>0.9882132845260988</v>
       </c>
       <c r="G28" s="4">
-        <f>G6/B6</f>
+        <f t="shared" si="5"/>
         <v>1.0082130528461877</v>
       </c>
       <c r="H28" s="4">
-        <f>H6/B6</f>
+        <f t="shared" si="6"/>
         <v>1.0047783981650951</v>
       </c>
       <c r="I28" s="4">
-        <f>I6/B6</f>
+        <f t="shared" si="7"/>
         <v>0.99394157032643693</v>
       </c>
     </row>
@@ -1416,35 +1397,35 @@
         <v>12</v>
       </c>
       <c r="B29" s="1">
-        <f>B7/B7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C29" s="4">
-        <f>C7/B7</f>
+        <f t="shared" si="1"/>
         <v>0.99150320889451327</v>
       </c>
       <c r="D29" s="4">
-        <f>D7/B7</f>
+        <f t="shared" si="2"/>
         <v>1.0054234836843534</v>
       </c>
       <c r="E29" s="4">
-        <f>E7/B7</f>
+        <f t="shared" si="3"/>
         <v>0.99276868842086241</v>
       </c>
       <c r="F29" s="4">
-        <f>F7/B7</f>
+        <f t="shared" si="4"/>
         <v>1.0113893157371419</v>
       </c>
       <c r="G29" s="4">
-        <f>G7/B7</f>
+        <f t="shared" si="5"/>
         <v>1.0028925246316551</v>
       </c>
       <c r="H29" s="4">
-        <f>H7/B7</f>
+        <f t="shared" si="6"/>
         <v>1.0124740124740126</v>
       </c>
       <c r="I29" s="4">
-        <f>I7/B7</f>
+        <f t="shared" si="7"/>
         <v>0.99945765163156464</v>
       </c>
     </row>
@@ -1453,35 +1434,35 @@
         <v>13</v>
       </c>
       <c r="B30" s="1">
-        <f>B8/B8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C30" s="4">
-        <f>C8/B8</f>
+        <f t="shared" si="1"/>
         <v>0.15538079737003258</v>
       </c>
       <c r="D30" s="4">
-        <f>D8/B8</f>
+        <f t="shared" si="2"/>
         <v>0.70891481612788865</v>
       </c>
       <c r="E30" s="4">
-        <f>E8/B8</f>
+        <f t="shared" si="3"/>
         <v>1.9354433235569022</v>
       </c>
       <c r="F30" s="4">
-        <f>F8/B8</f>
+        <f t="shared" si="4"/>
         <v>1.1553002223869533</v>
       </c>
       <c r="G30" s="4">
-        <f>G8/B8</f>
+        <f t="shared" si="5"/>
         <v>0.70282334740709707</v>
       </c>
       <c r="H30" s="4">
-        <f>H8/B8</f>
+        <f t="shared" si="6"/>
         <v>1.8634254036806652</v>
       </c>
       <c r="I30" s="4">
-        <f>I8/B8</f>
+        <f t="shared" si="7"/>
         <v>1.203258452315725</v>
       </c>
     </row>
@@ -1490,35 +1471,35 @@
         <v>14</v>
       </c>
       <c r="B31" s="1">
-        <f>B9/B9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C31" s="4">
-        <f>C9/B9</f>
+        <f t="shared" si="1"/>
         <v>0.89773555901539182</v>
       </c>
       <c r="D31" s="4">
-        <f>D9/B9</f>
+        <f t="shared" si="2"/>
         <v>0.87629333280778854</v>
       </c>
       <c r="E31" s="4">
-        <f>E9/B9</f>
+        <f t="shared" si="3"/>
         <v>0.83699572337951555</v>
       </c>
       <c r="F31" s="4">
-        <f>F9/B9</f>
+        <f t="shared" si="4"/>
         <v>0.93133757710727016</v>
       </c>
       <c r="G31" s="4">
-        <f>G9/B9</f>
+        <f t="shared" si="5"/>
         <v>1.0014386787804732</v>
       </c>
       <c r="H31" s="4">
-        <f>H9/B9</f>
+        <f t="shared" si="6"/>
         <v>0.93723024772866115</v>
       </c>
       <c r="I31" s="4">
-        <f>I9/B9</f>
+        <f t="shared" si="7"/>
         <v>0.83926213515697368</v>
       </c>
     </row>
@@ -1527,35 +1508,35 @@
         <v>15</v>
       </c>
       <c r="B32" s="1">
-        <f>B10/B10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C32" s="4">
-        <f>C10/B10</f>
+        <f t="shared" si="1"/>
         <v>0.67056233062330628</v>
       </c>
       <c r="D32" s="4">
-        <f>D10/B10</f>
+        <f t="shared" si="2"/>
         <v>1.0654640921409215</v>
       </c>
       <c r="E32" s="4">
-        <f>E10/B10</f>
+        <f t="shared" si="3"/>
         <v>1.0022018970189703</v>
       </c>
       <c r="F32" s="4">
-        <f>F10/B10</f>
+        <f t="shared" si="4"/>
         <v>1.0297679539295392</v>
       </c>
       <c r="G32" s="4">
-        <f>G10/B10</f>
+        <f t="shared" si="5"/>
         <v>0.98052168021680219</v>
       </c>
       <c r="H32" s="4">
-        <f>H10/B10</f>
+        <f t="shared" si="6"/>
         <v>0.9008722899728997</v>
       </c>
       <c r="I32" s="4">
-        <f>I10/B10</f>
+        <f t="shared" si="7"/>
         <v>0.9831046747967479</v>
       </c>
     </row>
@@ -1564,35 +1545,35 @@
         <v>16</v>
       </c>
       <c r="B33" s="1">
-        <f>B11/B11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C33" s="4">
-        <f>C11/B11</f>
+        <f t="shared" si="1"/>
         <v>0.83310048361096189</v>
       </c>
       <c r="D33" s="4">
-        <f>D11/B11</f>
+        <f t="shared" si="2"/>
         <v>1.1826974744760883</v>
       </c>
       <c r="E33" s="4">
-        <f>E11/B11</f>
+        <f t="shared" si="3"/>
         <v>1.0069854916711445</v>
       </c>
       <c r="F33" s="4">
-        <f>F11/B11</f>
+        <f t="shared" si="4"/>
         <v>1.0139709837721655</v>
       </c>
       <c r="G33" s="4">
-        <f>G11/B11</f>
+        <f t="shared" si="5"/>
         <v>1.0408382590005374</v>
       </c>
       <c r="H33" s="4">
-        <f>H11/B11</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I33" s="4">
-        <f>I11/B11</f>
+        <f t="shared" si="7"/>
         <v>0.95002686727565822</v>
       </c>
     </row>
@@ -1601,35 +1582,35 @@
         <v>17</v>
       </c>
       <c r="B34" s="1">
-        <f>B12/B12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C34" s="4">
-        <f>C12/B12</f>
+        <f t="shared" si="1"/>
         <v>0.83653846153846156</v>
       </c>
       <c r="D34" s="4">
-        <f>D12/B12</f>
+        <f t="shared" si="2"/>
         <v>0.86554758787483699</v>
       </c>
       <c r="E34" s="4">
-        <f>E12/B12</f>
+        <f t="shared" si="3"/>
         <v>1.0324315514993481</v>
       </c>
       <c r="F34" s="4">
-        <f>F12/B12</f>
+        <f t="shared" si="4"/>
         <v>0.96479791395045633</v>
       </c>
       <c r="G34" s="4">
-        <f>G12/B12</f>
+        <f t="shared" si="5"/>
         <v>0.90319426336375497</v>
       </c>
       <c r="H34" s="4">
-        <f>H12/B12</f>
+        <f t="shared" si="6"/>
         <v>0.90074967405475881</v>
       </c>
       <c r="I34" s="4">
-        <f>I12/B12</f>
+        <f t="shared" si="7"/>
         <v>1.0335723598435462</v>
       </c>
     </row>
@@ -1638,35 +1619,35 @@
         <v>18</v>
       </c>
       <c r="B35" s="1">
-        <f>B13/B13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C35" s="4">
-        <f>C13/B13</f>
+        <f t="shared" si="1"/>
         <v>0.86334696065947314</v>
       </c>
       <c r="D35" s="4">
-        <f>D13/B13</f>
+        <f t="shared" si="2"/>
         <v>0.9504054688023591</v>
       </c>
       <c r="E35" s="4">
-        <f>E13/B13</f>
+        <f t="shared" si="3"/>
         <v>0.88693787279672942</v>
       </c>
       <c r="F35" s="4">
-        <f>F13/B13</f>
+        <f t="shared" si="4"/>
         <v>0.88378794986931164</v>
       </c>
       <c r="G35" s="4">
-        <f>G13/B13</f>
+        <f t="shared" si="5"/>
         <v>0.99510756651698939</v>
       </c>
       <c r="H35" s="4">
-        <f>H13/B13</f>
+        <f t="shared" si="6"/>
         <v>0.93934722873802012</v>
       </c>
       <c r="I35" s="4">
-        <f>I13/B13</f>
+        <f t="shared" si="7"/>
         <v>0.9270826352121172</v>
       </c>
     </row>
@@ -1675,35 +1656,35 @@
         <v>19</v>
       </c>
       <c r="B36" s="1">
-        <f>B14/B14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C36" s="4">
-        <f>C14/B14</f>
+        <f t="shared" si="1"/>
         <v>1.0276299112801013</v>
       </c>
       <c r="D36" s="4">
-        <f>D14/B14</f>
+        <f t="shared" si="2"/>
         <v>0.99974651457541175</v>
       </c>
       <c r="E36" s="4">
-        <f>E14/B14</f>
+        <f t="shared" si="3"/>
         <v>1.0053231939163496</v>
       </c>
       <c r="F36" s="4">
-        <f>F14/B14</f>
+        <f t="shared" si="4"/>
         <v>1.0088719900633711</v>
       </c>
       <c r="G36" s="4">
-        <f>G14/B14</f>
+        <f t="shared" si="5"/>
         <v>1.0730038022813686</v>
       </c>
       <c r="H36" s="4">
-        <f>H14/B14</f>
+        <f t="shared" si="6"/>
         <v>1.0593155893536121</v>
       </c>
       <c r="I36" s="4">
-        <f>I14/B14</f>
+        <f t="shared" si="7"/>
         <v>1.0027883396704689</v>
       </c>
     </row>
@@ -1712,35 +1693,35 @@
         <v>20</v>
       </c>
       <c r="B37" s="1">
-        <f>B15/B15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C37" s="4">
-        <f>C15/B15</f>
+        <f t="shared" si="1"/>
         <v>0.71302506177197322</v>
       </c>
       <c r="D37" s="4">
-        <f>D15/B15</f>
+        <f t="shared" si="2"/>
         <v>0.91351923755735975</v>
       </c>
       <c r="E37" s="4">
-        <f>E15/B15</f>
+        <f t="shared" si="3"/>
         <v>0.90381221320155314</v>
       </c>
       <c r="F37" s="4">
-        <f>F15/B15</f>
+        <f t="shared" si="4"/>
         <v>0.9295799505824216</v>
       </c>
       <c r="G37" s="4">
-        <f>G15/B15</f>
+        <f t="shared" si="5"/>
         <v>0.98764560536533719</v>
       </c>
       <c r="H37" s="4">
-        <f>H15/B15</f>
+        <f t="shared" si="6"/>
         <v>1.1902576773738087</v>
       </c>
       <c r="I37" s="4">
-        <f>I15/B15</f>
+        <f t="shared" si="7"/>
         <v>0.97846805520649494</v>
       </c>
     </row>
@@ -1749,35 +1730,35 @@
         <v>21</v>
       </c>
       <c r="B38" s="1">
-        <f>B16/B16</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C38" s="4">
-        <f>C16/B16</f>
+        <f t="shared" si="1"/>
         <v>1.0016367417538654</v>
       </c>
       <c r="D38" s="4">
-        <f>D16/B16</f>
+        <f t="shared" si="2"/>
         <v>1.0017114704976386</v>
       </c>
       <c r="E38" s="4">
-        <f>E16/B16</f>
+        <f t="shared" si="3"/>
         <v>1.0016567909290242</v>
       </c>
       <c r="F38" s="4">
-        <f>F16/B16</f>
+        <f t="shared" si="4"/>
         <v>1.0014453632637139</v>
       </c>
       <c r="G38" s="4">
-        <f>G16/B16</f>
+        <f t="shared" si="5"/>
         <v>1.0016622588858854</v>
       </c>
       <c r="H38" s="4">
-        <f>H16/B16</f>
+        <f t="shared" si="6"/>
         <v>1.0017752633276891</v>
       </c>
       <c r="I38" s="4">
-        <f>I16/B16</f>
+        <f t="shared" si="7"/>
         <v>1.0013123096467518</v>
       </c>
     </row>
@@ -1786,35 +1767,35 @@
         <v>22</v>
       </c>
       <c r="B39" s="1">
-        <f>B17/B17</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C39" s="4">
-        <f>C17/B17</f>
+        <f t="shared" si="1"/>
         <v>0.98257394084732219</v>
       </c>
       <c r="D39" s="4">
-        <f>D17/B17</f>
+        <f t="shared" si="2"/>
         <v>0.97422861710631492</v>
       </c>
       <c r="E39" s="4">
-        <f>E17/B17</f>
+        <f t="shared" si="3"/>
         <v>0.9762270183852918</v>
       </c>
       <c r="F39" s="4">
-        <f>F17/B17</f>
+        <f t="shared" si="4"/>
         <v>0.97753796962430062</v>
       </c>
       <c r="G39" s="4">
-        <f>G17/B17</f>
+        <f t="shared" si="5"/>
         <v>1.0068904876099121</v>
       </c>
       <c r="H39" s="4">
-        <f>H17/B17</f>
+        <f t="shared" si="6"/>
         <v>1.0576179056754595</v>
       </c>
       <c r="I39" s="4">
-        <f>I17/B17</f>
+        <f t="shared" si="7"/>
         <v>0.98564348521183054</v>
       </c>
     </row>
@@ -1823,35 +1804,35 @@
         <v>23</v>
       </c>
       <c r="B40" s="1">
-        <f>B18/B18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C40" s="4">
-        <f>C18/B18</f>
+        <f t="shared" si="1"/>
         <v>0.92882991556091665</v>
       </c>
       <c r="D40" s="4">
-        <f>D18/B18</f>
+        <f t="shared" si="2"/>
         <v>0.99879372738238836</v>
       </c>
       <c r="E40" s="4">
-        <f>E18/B18</f>
+        <f t="shared" si="3"/>
         <v>1.025331724969843</v>
       </c>
       <c r="F40" s="4">
-        <f>F18/B18</f>
+        <f t="shared" si="4"/>
         <v>1.006031363088058</v>
       </c>
       <c r="G40" s="4">
-        <f>G18/B18</f>
+        <f t="shared" si="5"/>
         <v>1.037394451145959</v>
       </c>
       <c r="H40" s="4">
-        <f>H18/B18</f>
+        <f t="shared" si="6"/>
         <v>1.0516284680337757</v>
       </c>
       <c r="I40" s="4">
-        <f>I18/B18</f>
+        <f t="shared" si="7"/>
         <v>1.1531966224366705</v>
       </c>
     </row>
@@ -1860,35 +1841,35 @@
         <v>24</v>
       </c>
       <c r="B41" s="1">
-        <f>B19/B19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C41" s="4">
-        <f>C19/B19</f>
+        <f t="shared" si="1"/>
         <v>1.011820330969267</v>
       </c>
       <c r="D41" s="4">
-        <f>D19/B19</f>
+        <f t="shared" si="2"/>
         <v>1.0023640661938535</v>
       </c>
       <c r="E41" s="4">
-        <f>E19/B19</f>
+        <f t="shared" si="3"/>
         <v>1.0047281323877069</v>
       </c>
       <c r="F41" s="4">
-        <f>F19/B19</f>
+        <f t="shared" si="4"/>
         <v>1.0047281323877069</v>
       </c>
       <c r="G41" s="4">
-        <f>G19/B19</f>
+        <f t="shared" si="5"/>
         <v>0.99527186761229325</v>
       </c>
       <c r="H41" s="4">
-        <f>H19/B19</f>
+        <f t="shared" si="6"/>
         <v>0.99054373522458627</v>
       </c>
       <c r="I41" s="4">
-        <f>I19/B19</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1897,69 +1878,69 @@
         <v>25</v>
       </c>
       <c r="B42" s="1">
-        <f>B20/B20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C42" s="4">
-        <f>C20/B20</f>
+        <f t="shared" si="1"/>
         <v>1.0186648501362396</v>
       </c>
       <c r="D42" s="4">
-        <f>D20/B20</f>
+        <f t="shared" si="2"/>
         <v>1.013623978201635</v>
       </c>
       <c r="E42" s="4">
-        <f>E20/B20</f>
+        <f t="shared" si="3"/>
         <v>0.99863760217983644</v>
       </c>
       <c r="F42" s="4">
-        <f>F20/B20</f>
+        <f t="shared" si="4"/>
         <v>1.0340599455040871</v>
       </c>
       <c r="G42" s="4">
-        <f>G20/B20</f>
+        <f t="shared" si="5"/>
         <v>0.99863760217983644</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4">
-        <f>I20/B20</f>
+        <f t="shared" si="7"/>
         <v>1.0190735694822888</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <f>AVERAGE(B24:B42)</f>
         <v>1</v>
       </c>
-      <c r="C43" s="10">
-        <f t="shared" ref="C43:I43" si="0">AVERAGE(C24:C42)</f>
+      <c r="C43" s="9">
+        <f t="shared" ref="C43:I43" si="8">AVERAGE(C24:C42)</f>
         <v>0.85921642468266191</v>
       </c>
-      <c r="D43" s="10">
-        <f t="shared" si="0"/>
+      <c r="D43" s="9">
+        <f t="shared" si="8"/>
         <v>0.97781682593708541</v>
       </c>
-      <c r="E43" s="10">
-        <f t="shared" si="0"/>
+      <c r="E43" s="9">
+        <f t="shared" si="8"/>
         <v>1.0554274675864836</v>
       </c>
-      <c r="F43" s="10">
-        <f t="shared" si="0"/>
+      <c r="F43" s="9">
+        <f t="shared" si="8"/>
         <v>0.99475255688374298</v>
       </c>
-      <c r="G43" s="10">
-        <f t="shared" si="0"/>
+      <c r="G43" s="9">
+        <f t="shared" si="8"/>
         <v>0.98622277863946228</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <f>AVERAGE(H24:H41)</f>
         <v>1.0607442725351142</v>
       </c>
-      <c r="I43" s="10">
-        <f t="shared" si="0"/>
+      <c r="I43" s="9">
+        <f t="shared" si="8"/>
         <v>0.98810514379747783</v>
       </c>
     </row>
@@ -1997,7 +1978,7 @@
       <c r="I46" s="4"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2052,7 +2033,7 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2077,10 +2058,10 @@
         <v>6</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>0</v>
@@ -2104,865 +2085,1298 @@
         <v>6</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="B54" s="2">
+        <v>631562</v>
+      </c>
+      <c r="C54" s="2">
+        <v>816544</v>
+      </c>
+      <c r="D54" s="2">
+        <v>637804</v>
+      </c>
+      <c r="E54" s="2">
+        <v>638113</v>
+      </c>
+      <c r="F54" s="2">
+        <v>648188</v>
+      </c>
+      <c r="G54" s="2">
+        <v>629688</v>
+      </c>
+      <c r="H54" s="2">
+        <v>644236</v>
+      </c>
+      <c r="I54" s="2">
+        <v>637440</v>
+      </c>
       <c r="K54" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L54" s="4">
         <f>B54/1024</f>
-        <v>0</v>
+        <v>616.759765625</v>
       </c>
       <c r="M54" s="4">
         <f>C54/1024</f>
-        <v>0</v>
+        <v>797.40625</v>
       </c>
       <c r="N54" s="4">
-        <f>E54/1024</f>
-        <v>0</v>
+        <f>D54/1024</f>
+        <v>622.85546875</v>
       </c>
       <c r="O54" s="4">
-        <f>F54/1024</f>
-        <v>0</v>
+        <f t="shared" ref="O54:R54" si="9">E54/1024</f>
+        <v>623.1572265625</v>
       </c>
       <c r="P54" s="4">
-        <f t="shared" ref="P54:R54" si="1">G54/1024</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>632.99609375</v>
       </c>
       <c r="Q54" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>614.9296875</v>
       </c>
       <c r="R54" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>629.13671875</v>
+      </c>
+      <c r="S54" s="4">
+        <f>I54/1024</f>
+        <v>622.5</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="B55" s="2">
+        <v>69952</v>
+      </c>
+      <c r="C55" s="2">
+        <v>211776</v>
+      </c>
+      <c r="D55" s="2">
+        <v>82112</v>
+      </c>
+      <c r="E55" s="2">
+        <v>83809</v>
+      </c>
+      <c r="F55" s="2">
+        <v>621149</v>
+      </c>
+      <c r="G55" s="2">
+        <v>77196</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2068524</v>
+      </c>
+      <c r="I55" s="2">
+        <v>88953</v>
+      </c>
       <c r="K55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" ref="L55:L76" si="2">B55/1024</f>
-        <v>0</v>
+        <f t="shared" ref="L55:L72" si="10">B55/1024</f>
+        <v>68.3125</v>
       </c>
       <c r="M55" s="4">
-        <f t="shared" ref="M55:M76" si="3">C55/1024</f>
-        <v>0</v>
+        <f t="shared" ref="M55:M72" si="11">C55/1024</f>
+        <v>206.8125</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" ref="N55:N76" si="4">E55/1024</f>
-        <v>0</v>
+        <f t="shared" ref="N55:N72" si="12">D55/1024</f>
+        <v>80.1875</v>
       </c>
       <c r="O55" s="4">
-        <f t="shared" ref="O55:O76" si="5">F55/1024</f>
-        <v>0</v>
+        <f t="shared" ref="O55:O72" si="13">E55/1024</f>
+        <v>81.8447265625</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" ref="P55:P76" si="6">G55/1024</f>
-        <v>0</v>
+        <f t="shared" ref="P55:P72" si="14">F55/1024</f>
+        <v>606.5908203125</v>
       </c>
       <c r="Q55" s="4">
-        <f t="shared" ref="Q55:Q76" si="7">H55/1024</f>
-        <v>0</v>
+        <f t="shared" ref="Q55:Q72" si="15">G55/1024</f>
+        <v>75.38671875</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" ref="R55:R76" si="8">I55/1024</f>
-        <v>0</v>
+        <f t="shared" ref="R55:S72" si="16">H55/1024</f>
+        <v>2020.04296875</v>
+      </c>
+      <c r="S55" s="4">
+        <f>I55/1024</f>
+        <v>86.8681640625</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="B56" s="2">
+        <v>908444</v>
+      </c>
+      <c r="C56" s="2">
+        <v>855997</v>
+      </c>
+      <c r="D56" s="2">
+        <v>793014</v>
+      </c>
+      <c r="E56" s="2">
+        <v>775517</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1321189</v>
+      </c>
+      <c r="G56" s="2">
+        <v>910142</v>
+      </c>
+      <c r="H56" s="2">
+        <v>37015480</v>
+      </c>
+      <c r="I56" s="2">
+        <v>912384</v>
+      </c>
       <c r="K56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>887.15234375</v>
       </c>
       <c r="M56" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>835.9345703125</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>774.427734375</v>
       </c>
       <c r="O56" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>757.3408203125</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1290.2236328125</v>
       </c>
       <c r="Q56" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>888.810546875</v>
       </c>
       <c r="R56" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>36147.9296875</v>
+      </c>
+      <c r="S56" s="4">
+        <f>I56/1024</f>
+        <v>891</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
+      <c r="B57" s="2">
+        <v>938653</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1481406</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1045754</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1041864</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1426826</v>
+      </c>
+      <c r="G57" s="2">
+        <v>958596</v>
+      </c>
+      <c r="H57" s="2">
+        <v>11455009</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1567860</v>
+      </c>
       <c r="K57" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>916.6533203125</v>
       </c>
       <c r="M57" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1446.685546875</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1021.244140625</v>
       </c>
       <c r="O57" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1017.4453125</v>
       </c>
       <c r="P57" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1393.384765625</v>
       </c>
       <c r="Q57" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>936.12890625</v>
       </c>
       <c r="R57" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>11186.5322265625</v>
+      </c>
+      <c r="S57" s="4">
+        <f t="shared" si="16"/>
+        <v>1531.11328125</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
+      <c r="B58" s="2">
+        <v>2701012</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3598500</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2813002</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2816565</v>
+      </c>
+      <c r="F58" s="2">
+        <v>3624585</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2705569</v>
+      </c>
+      <c r="H58" s="2">
+        <v>9524250</v>
+      </c>
+      <c r="I58" s="2">
+        <v>3253665</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2637.70703125</v>
       </c>
       <c r="M58" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3514.16015625</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2747.072265625</v>
       </c>
       <c r="O58" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2750.5517578125</v>
       </c>
       <c r="P58" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3539.6337890625</v>
       </c>
       <c r="Q58" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2642.1572265625</v>
       </c>
       <c r="R58" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>9301.025390625</v>
+      </c>
+      <c r="S58" s="4">
+        <f t="shared" si="16"/>
+        <v>3177.4072265625</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+      <c r="B59" s="2">
+        <v>163908</v>
+      </c>
+      <c r="C59" s="2">
+        <v>556834</v>
+      </c>
+      <c r="D59" s="2">
+        <v>249970</v>
+      </c>
+      <c r="E59" s="2">
+        <v>244029</v>
+      </c>
+      <c r="F59" s="2">
+        <v>706812</v>
+      </c>
+      <c r="G59" s="2">
+        <v>165538</v>
+      </c>
+      <c r="H59" s="2">
+        <v>3236922</v>
+      </c>
+      <c r="I59" s="2">
+        <v>788290</v>
+      </c>
       <c r="K59" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>160.06640625</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>543.783203125</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>244.111328125</v>
       </c>
       <c r="O59" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>238.3095703125</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>690.24609375</v>
       </c>
       <c r="Q59" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>161.658203125</v>
       </c>
       <c r="R59" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>3161.056640625</v>
+      </c>
+      <c r="S59" s="4">
+        <f>I59/1024</f>
+        <v>769.814453125</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
+      <c r="B60" s="2">
+        <v>480820</v>
+      </c>
+      <c r="C60" s="2">
+        <v>562208</v>
+      </c>
+      <c r="D60" s="2">
+        <v>492934</v>
+      </c>
+      <c r="E60" s="2">
+        <v>493564</v>
+      </c>
+      <c r="F60" s="2">
+        <v>494080</v>
+      </c>
+      <c r="G60" s="2">
+        <v>480877</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5502553</v>
+      </c>
+      <c r="I60" s="2">
+        <v>484214</v>
+      </c>
       <c r="K60" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>469.55078125</v>
       </c>
       <c r="M60" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>549.03125</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>481.380859375</v>
       </c>
       <c r="O60" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>481.99609375</v>
       </c>
       <c r="P60" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>482.5</v>
       </c>
       <c r="Q60" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>469.6064453125</v>
       </c>
       <c r="R60" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>5373.5869140625</v>
+      </c>
+      <c r="S60" s="4">
+        <f t="shared" si="16"/>
+        <v>472.865234375</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
+      <c r="B61" s="2">
+        <v>1318132</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1713408</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1118928</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1567261</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1320060</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1318466</v>
+      </c>
+      <c r="H61" s="2">
+        <v>16200168</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1425488</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1287.23828125</v>
       </c>
       <c r="M61" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1673.25</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1092.703125</v>
       </c>
       <c r="O61" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1530.5283203125</v>
       </c>
       <c r="P61" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1289.12109375</v>
       </c>
       <c r="Q61" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1287.564453125</v>
       </c>
       <c r="R61" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>15820.4765625</v>
+      </c>
+      <c r="S61" s="4">
+        <f t="shared" si="16"/>
+        <v>1392.078125</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
+      <c r="B62" s="2">
+        <v>114773</v>
+      </c>
+      <c r="C62" s="2">
+        <v>147936</v>
+      </c>
+      <c r="D62" s="2">
+        <v>126405</v>
+      </c>
+      <c r="E62" s="2">
+        <v>125701</v>
+      </c>
+      <c r="F62" s="2">
+        <v>130784</v>
+      </c>
+      <c r="G62" s="2">
+        <v>116121</v>
+      </c>
+      <c r="H62" s="2">
+        <v>196856</v>
+      </c>
+      <c r="I62" s="2">
+        <v>144734</v>
+      </c>
       <c r="K62" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>112.0830078125</v>
       </c>
       <c r="M62" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>144.46875</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>123.4423828125</v>
       </c>
       <c r="O62" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>122.7548828125</v>
       </c>
       <c r="P62" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>127.71875</v>
       </c>
       <c r="Q62" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>113.3994140625</v>
       </c>
       <c r="R62" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>192.2421875</v>
+      </c>
+      <c r="S62" s="4">
+        <f t="shared" si="16"/>
+        <v>141.341796875</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
+      <c r="B63" s="2">
+        <v>28889</v>
+      </c>
+      <c r="C63" s="2">
+        <v>253086</v>
+      </c>
+      <c r="D63" s="2">
+        <v>16966</v>
+      </c>
+      <c r="E63" s="2">
+        <v>21430</v>
+      </c>
+      <c r="F63" s="2">
+        <v>565030</v>
+      </c>
+      <c r="G63" s="2">
+        <v>31229</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1862077</v>
+      </c>
+      <c r="I63" s="2">
+        <v>14444</v>
+      </c>
       <c r="K63" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L63" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>28.2119140625</v>
       </c>
       <c r="M63" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>247.154296875</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>16.568359375</v>
       </c>
       <c r="O63" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>20.927734375</v>
       </c>
       <c r="P63" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>551.787109375</v>
       </c>
       <c r="Q63" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>30.4970703125</v>
       </c>
       <c r="R63" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1818.4345703125</v>
+      </c>
+      <c r="S63" s="4">
+        <f t="shared" si="16"/>
+        <v>14.10546875</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+      <c r="B64" s="2">
+        <v>231482</v>
+      </c>
+      <c r="C64" s="2">
+        <v>556038</v>
+      </c>
+      <c r="D64" s="2">
+        <v>254082</v>
+      </c>
+      <c r="E64" s="2">
+        <v>277070</v>
+      </c>
+      <c r="F64" s="2">
+        <v>796589</v>
+      </c>
+      <c r="G64" s="2">
+        <v>232360</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3761038</v>
+      </c>
+      <c r="I64" s="2">
+        <v>993825</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>17</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>226.056640625</v>
       </c>
       <c r="M64" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>543.005859375</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>248.126953125</v>
       </c>
       <c r="O64" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>270.576171875</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>777.9189453125</v>
       </c>
       <c r="Q64" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>226.9140625</v>
       </c>
       <c r="R64" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <f t="shared" si="16"/>
+        <v>3672.888671875</v>
+      </c>
+      <c r="S64" s="4">
+        <f t="shared" si="16"/>
+        <v>970.5322265625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+      <c r="B65" s="2">
+        <v>2929697</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3958052</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3132814</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3137500</v>
+      </c>
+      <c r="F65" s="2">
+        <v>3806750</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2926636</v>
+      </c>
+      <c r="H65" s="2">
+        <v>5565057</v>
+      </c>
+      <c r="I65" s="2">
+        <v>4157364</v>
+      </c>
       <c r="K65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2861.0322265625</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3865.28515625</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>3059.388671875</v>
       </c>
       <c r="O65" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3063.96484375</v>
       </c>
       <c r="P65" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3717.529296875</v>
       </c>
       <c r="Q65" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2858.04296875</v>
       </c>
       <c r="R65" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <f t="shared" si="16"/>
+        <v>5434.6259765625</v>
+      </c>
+      <c r="S65" s="4">
+        <f t="shared" si="16"/>
+        <v>4059.92578125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="B66" s="2">
+        <v>8264</v>
+      </c>
+      <c r="C66" s="2">
+        <v>67088</v>
+      </c>
+      <c r="D66" s="2">
+        <v>9949</v>
+      </c>
+      <c r="E66" s="2">
+        <v>9858</v>
+      </c>
+      <c r="F66" s="2">
+        <v>96048</v>
+      </c>
+      <c r="G66" s="2">
+        <v>9834</v>
+      </c>
+      <c r="H66" s="2">
+        <v>81865</v>
+      </c>
+      <c r="I66" s="2">
+        <v>6070</v>
+      </c>
       <c r="K66" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>8.0703125</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>65.515625</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>9.7158203125</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>9.626953125</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>93.796875</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9.603515625</v>
       </c>
       <c r="R66" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <f t="shared" si="16"/>
+        <v>79.9462890625</v>
+      </c>
+      <c r="S66" s="4">
+        <f t="shared" si="16"/>
+        <v>5.927734375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="B67" s="2">
+        <v>460468</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1302454</v>
+      </c>
+      <c r="D67" s="2">
+        <v>808321</v>
+      </c>
+      <c r="E67" s="2">
+        <v>837764</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1176230</v>
+      </c>
+      <c r="G67" s="2">
+        <v>456009</v>
+      </c>
+      <c r="H67" s="2">
+        <v>5494970</v>
+      </c>
+      <c r="I67" s="2">
+        <v>6402784</v>
+      </c>
       <c r="K67" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="L67:S70" si="17">B67/1024</f>
+        <v>449.67578125</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1271.927734375</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>789.3759765625</v>
       </c>
       <c r="O67" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>818.12890625</v>
       </c>
       <c r="P67" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1148.662109375</v>
       </c>
       <c r="Q67" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>445.3212890625</v>
       </c>
       <c r="R67" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <f t="shared" si="17"/>
+        <v>5366.181640625</v>
+      </c>
+      <c r="S67" s="4">
+        <f t="shared" si="17"/>
+        <v>6252.71875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="B68" s="2">
+        <v>534152</v>
+      </c>
+      <c r="C68" s="2">
+        <v>550444</v>
+      </c>
+      <c r="D68" s="2">
+        <v>540941</v>
+      </c>
+      <c r="E68" s="2">
+        <v>541041</v>
+      </c>
+      <c r="F68" s="2">
+        <v>548205</v>
+      </c>
+      <c r="G68" s="2">
+        <v>534326</v>
+      </c>
+      <c r="H68" s="2">
+        <v>567520</v>
+      </c>
+      <c r="I68" s="2">
+        <v>536280</v>
+      </c>
       <c r="K68" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>521.6328125</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>537.54296875</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>528.2626953125</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>528.3603515625</v>
       </c>
       <c r="P68" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>535.3564453125</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>521.802734375</v>
       </c>
       <c r="R68" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <f t="shared" si="17"/>
+        <v>554.21875</v>
+      </c>
+      <c r="S68" s="4">
+        <f t="shared" si="17"/>
+        <v>523.7109375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="B69" s="2">
+        <v>46278</v>
+      </c>
+      <c r="C69" s="2">
+        <v>261730</v>
+      </c>
+      <c r="D69" s="2">
+        <v>63481</v>
+      </c>
+      <c r="E69" s="2">
+        <v>79516</v>
+      </c>
+      <c r="F69" s="2">
+        <v>146846</v>
+      </c>
+      <c r="G69" s="2">
+        <v>46449</v>
+      </c>
+      <c r="H69" s="2">
+        <v>700124</v>
+      </c>
+      <c r="I69" s="2">
+        <v>111526</v>
+      </c>
       <c r="K69" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>45.193359375</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>255.595703125</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>61.9931640625</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>77.65234375</v>
       </c>
       <c r="P69" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>143.404296875</v>
       </c>
       <c r="Q69" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>45.3603515625</v>
       </c>
       <c r="R69" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <f t="shared" si="17"/>
+        <v>683.71484375</v>
+      </c>
+      <c r="S69" s="4">
+        <f t="shared" si="17"/>
+        <v>108.912109375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="B70" s="2">
+        <v>3743</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4070</v>
+      </c>
+      <c r="D70" s="2">
+        <v>9684</v>
+      </c>
+      <c r="E70" s="2">
+        <v>8256</v>
+      </c>
+      <c r="F70" s="2">
+        <v>7500</v>
+      </c>
+      <c r="G70" s="2">
+        <v>3960</v>
+      </c>
+      <c r="H70" s="2">
+        <v>4231</v>
+      </c>
+      <c r="I70" s="2">
+        <v>3974</v>
+      </c>
       <c r="K70" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>3.6552734375</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>3.974609375</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>9.45703125</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>8.0625</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>7.32421875</v>
       </c>
       <c r="Q70" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>3.8671875</v>
       </c>
       <c r="R70" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <f t="shared" si="17"/>
+        <v>4.1318359375</v>
+      </c>
+      <c r="S70" s="4">
+        <f t="shared" si="17"/>
+        <v>3.880859375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="B71" s="1">
+        <v>15332</v>
+      </c>
+      <c r="C71" s="1">
+        <v>18920</v>
+      </c>
+      <c r="D71" s="1">
+        <v>22911</v>
+      </c>
+      <c r="E71" s="1">
+        <v>22121</v>
+      </c>
+      <c r="F71" s="5">
+        <v>17660</v>
+      </c>
+      <c r="G71" s="1">
+        <v>17060</v>
+      </c>
+      <c r="H71" s="1">
+        <v>18128</v>
+      </c>
+      <c r="I71" s="2">
+        <v>15626</v>
+      </c>
       <c r="K71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>14.97265625</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>18.4765625</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>22.3740234375</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>21.6025390625</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>17.24609375</v>
       </c>
       <c r="Q71" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>16.66015625</v>
       </c>
       <c r="R71" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <f t="shared" si="16"/>
+        <v>17.703125</v>
+      </c>
+      <c r="S71" s="4">
+        <f t="shared" si="16"/>
+        <v>15.259765625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="11"/>
+      <c r="B72" s="1">
+        <v>276777</v>
+      </c>
+      <c r="C72" s="1">
+        <v>366585</v>
+      </c>
+      <c r="D72" s="1">
+        <v>322220</v>
+      </c>
+      <c r="E72" s="1">
+        <v>324593</v>
+      </c>
+      <c r="F72" s="5">
+        <v>303915</v>
+      </c>
+      <c r="G72" s="1">
+        <v>275927</v>
+      </c>
+      <c r="H72" s="1">
+        <v>426166</v>
+      </c>
+      <c r="I72" s="2">
+        <v>287326</v>
+      </c>
       <c r="K72" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>270.2900390625</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>357.9931640625</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>314.66796875</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>316.9853515625</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>296.7919921875</v>
       </c>
       <c r="Q72" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>269.4599609375</v>
       </c>
       <c r="R72" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-    </row>
-    <row r="74" spans="1:18">
+        <f t="shared" si="16"/>
+        <v>416.177734375</v>
+      </c>
+      <c r="S72" s="4">
+        <f t="shared" si="16"/>
+        <v>280.591796875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="8">
+        <f>SUM(B54:B72)</f>
+        <v>11862338</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" ref="C73:I73" si="18">SUM(C54:C72)</f>
+        <v>17283076</v>
+      </c>
+      <c r="D73" s="8">
+        <f t="shared" si="18"/>
+        <v>12541292</v>
+      </c>
+      <c r="E73" s="8">
+        <f t="shared" si="18"/>
+        <v>13045572</v>
+      </c>
+      <c r="F73" s="8">
+        <f t="shared" si="18"/>
+        <v>17758446</v>
+      </c>
+      <c r="G73" s="8">
+        <f t="shared" si="18"/>
+        <v>11895983</v>
+      </c>
+      <c r="H73" s="8">
+        <f t="shared" si="18"/>
+        <v>104325174</v>
+      </c>
+      <c r="I73" s="8">
+        <f t="shared" si="18"/>
+        <v>21832247</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L73" s="4">
+        <f t="shared" ref="L73" si="19">B73/1024</f>
+        <v>11584.314453125</v>
+      </c>
+      <c r="M73" s="4">
+        <f t="shared" ref="M73" si="20">C73/1024</f>
+        <v>16878.00390625</v>
+      </c>
+      <c r="N73" s="4">
+        <f t="shared" ref="N73" si="21">D73/1024</f>
+        <v>12247.35546875</v>
+      </c>
+      <c r="O73" s="4">
+        <f t="shared" ref="O73" si="22">E73/1024</f>
+        <v>12739.81640625</v>
+      </c>
+      <c r="P73" s="4">
+        <f t="shared" ref="P73" si="23">F73/1024</f>
+        <v>17342.232421875</v>
+      </c>
+      <c r="Q73" s="4">
+        <f t="shared" ref="Q73" si="24">G73/1024</f>
+        <v>11617.1708984375</v>
+      </c>
+      <c r="R73" s="4">
+        <f t="shared" ref="R73" si="25">H73/1024</f>
+        <v>101880.052734375</v>
+      </c>
+      <c r="S73" s="4">
+        <f t="shared" ref="S73" si="26">I73/1024</f>
+        <v>21320.5537109375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2981,7 +3395,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:19">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3000,7 +3414,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:19">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3019,7 +3433,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:19">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3030,7 +3444,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:19">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3041,641 +3455,236 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:18">
-      <c r="A79" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
-      <c r="A80" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="4">
-        <v>1</v>
-      </c>
-      <c r="C80" s="4" t="e">
-        <f>C54/B54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D80" s="4" t="e">
-        <f>D54/B54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E80" s="4">
-        <v>1.009907106</v>
-      </c>
-      <c r="F80" s="4">
-        <v>1.0125621279999999</v>
-      </c>
-      <c r="G80" s="4">
-        <v>1.0291798329999999</v>
-      </c>
-      <c r="H80" s="4">
-        <v>0.99994442240000003</v>
-      </c>
-      <c r="I80" s="4">
-        <v>1.0250337439999999</v>
-      </c>
+    <row r="79" spans="1:19">
+      <c r="A79" s="10"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="4">
-        <v>1</v>
-      </c>
-      <c r="C81" s="4" t="e">
-        <f>C55/B55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D81" s="4" t="e">
-        <f t="shared" ref="D81:D97" si="9">D55/B55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1.2198628499999999</v>
-      </c>
-      <c r="F81" s="4">
-        <v>1.2576716349999999</v>
-      </c>
-      <c r="G81" s="4">
-        <v>15.46241627</v>
-      </c>
-      <c r="H81" s="4">
-        <v>1.0101405910000001</v>
-      </c>
-      <c r="I81" s="4">
-        <v>54.059016649999997</v>
-      </c>
+      <c r="A81" s="5"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="4">
-        <v>1</v>
-      </c>
-      <c r="C82" s="4" t="e">
-        <f>C56/B56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D82" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E82" s="4">
-        <v>0.87136393020000003</v>
-      </c>
-      <c r="F82" s="4">
-        <v>0.85185502769999999</v>
-      </c>
-      <c r="G82" s="4">
-        <v>1.4568585679999999</v>
-      </c>
-      <c r="H82" s="4">
-        <v>0.99966250239999999</v>
-      </c>
-      <c r="I82" s="4">
-        <v>40.693676369999999</v>
-      </c>
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="4">
-        <v>1</v>
-      </c>
-      <c r="C83" s="4">
-        <v>1.355316333</v>
-      </c>
-      <c r="D83" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1.077382214</v>
-      </c>
-      <c r="F83" s="4">
-        <v>1.1217347820000001</v>
-      </c>
-      <c r="G83" s="4">
-        <v>1.5235528309999999</v>
-      </c>
-      <c r="H83" s="4">
-        <v>0.999678752</v>
-      </c>
-      <c r="I83" s="4">
-        <v>9.3823964669999995</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="4">
-        <v>1</v>
-      </c>
-      <c r="C84" s="4">
-        <v>0.89267720350000002</v>
-      </c>
-      <c r="D84" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E84" s="4">
-        <v>1.0763503169999999</v>
-      </c>
-      <c r="F84" s="4">
-        <v>1.0737736360000001</v>
-      </c>
-      <c r="G84" s="4">
-        <v>2.022276615</v>
-      </c>
-      <c r="H84" s="4">
-        <v>0.97575164830000005</v>
-      </c>
-      <c r="I84" s="4">
-        <v>5.4564178200000004</v>
-      </c>
+      <c r="A84" s="5"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="4">
-        <v>1</v>
-      </c>
-      <c r="C85" s="4">
-        <v>2.67363806</v>
-      </c>
-      <c r="D85" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E85" s="4">
-        <v>1.057902326</v>
-      </c>
-      <c r="F85" s="4">
-        <v>0.99300209939999995</v>
-      </c>
-      <c r="G85" s="4">
-        <v>3.2346788389999999</v>
-      </c>
-      <c r="H85" s="4">
-        <v>1.0013942790000001</v>
-      </c>
-      <c r="I85" s="4">
-        <v>18.330990100000001</v>
-      </c>
+      <c r="A85" s="5"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="4">
-        <v>1</v>
-      </c>
-      <c r="C86" s="4">
-        <v>0.83424498899999999</v>
-      </c>
-      <c r="D86" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1.0281334660000001</v>
-      </c>
-      <c r="F86" s="4">
-        <v>1.030064887</v>
-      </c>
-      <c r="G86" s="4">
-        <v>1.0239255039999999</v>
-      </c>
-      <c r="H86" s="4">
-        <v>1.0002889850000001</v>
-      </c>
-      <c r="I86" s="4">
-        <v>7.3160919179999997</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" s="4">
-        <v>1</v>
-      </c>
-      <c r="C87" s="4">
-        <v>1.1430261669999999</v>
-      </c>
-      <c r="D87" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E87" s="4">
-        <v>0.84825402940000005</v>
-      </c>
-      <c r="F87" s="4">
-        <v>1.1982748489999999</v>
-      </c>
-      <c r="G87" s="4">
-        <v>0.99992870649999999</v>
-      </c>
-      <c r="H87" s="4">
-        <v>1.0001751999999999</v>
-      </c>
-      <c r="I87" s="4">
-        <v>3.4152998920000002</v>
-      </c>
+      <c r="A87" s="5"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="4">
-        <v>1</v>
-      </c>
-      <c r="C88" s="4">
-        <v>0.92695412649999998</v>
-      </c>
-      <c r="D88" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E88" s="4">
-        <v>1.086844294</v>
-      </c>
-      <c r="F88" s="4">
-        <v>1.0757224030000001</v>
-      </c>
-      <c r="G88" s="4">
-        <v>1.1257189379999999</v>
-      </c>
-      <c r="H88" s="4">
-        <v>0.99916845679999999</v>
-      </c>
-      <c r="I88" s="4">
-        <v>1.707504677</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B89" s="4">
-        <v>1</v>
-      </c>
-      <c r="C89" s="4">
-        <v>8.1418776529999999</v>
-      </c>
-      <c r="D89" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E89" s="4">
-        <v>0.49188210500000001</v>
-      </c>
-      <c r="F89" s="4">
-        <v>0.63613427919999999</v>
-      </c>
-      <c r="G89" s="4">
-        <v>16.404351309999999</v>
-      </c>
-      <c r="H89" s="4">
-        <v>1.118815114</v>
-      </c>
-      <c r="I89" s="4">
-        <v>55.231931379999999</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" s="4">
-        <v>1</v>
-      </c>
-      <c r="C90" s="4">
-        <v>2.3458301810000002</v>
-      </c>
-      <c r="D90" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1.0843238070000001</v>
-      </c>
-      <c r="F90" s="4">
-        <v>1.1786057720000001</v>
-      </c>
-      <c r="G90" s="4">
-        <v>3.4044380049999998</v>
-      </c>
-      <c r="H90" s="4">
-        <v>0.9930079195</v>
-      </c>
-      <c r="I90" s="4">
-        <v>16.109249120000001</v>
-      </c>
+      <c r="A90" s="5"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B91" s="4">
-        <v>1</v>
-      </c>
-      <c r="C91" s="4">
-        <v>0.95165027999999996</v>
-      </c>
-      <c r="D91" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E91" s="4">
-        <v>1.065692885</v>
-      </c>
-      <c r="F91" s="4">
-        <v>1.07169173</v>
-      </c>
-      <c r="G91" s="4">
-        <v>1.300806688</v>
-      </c>
-      <c r="H91" s="4">
-        <v>0.99977082530000005</v>
-      </c>
-      <c r="I91" s="4">
-        <v>1.8891532049999999</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B92" s="4">
-        <v>1</v>
-      </c>
-      <c r="C92" s="4">
-        <v>8.8351802169999996</v>
-      </c>
-      <c r="D92" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E92" s="4">
-        <v>1.2703837630000001</v>
-      </c>
-      <c r="F92" s="4">
-        <v>1.1454566660000001</v>
-      </c>
-      <c r="G92" s="4">
-        <v>11.13367549</v>
-      </c>
-      <c r="H92" s="4">
-        <v>0.97912049459999995</v>
-      </c>
-      <c r="I92" s="4">
-        <v>9.5420506239999998</v>
-      </c>
+      <c r="A92" s="6"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B93" s="4">
-        <v>1</v>
-      </c>
-      <c r="C93" s="4">
-        <v>1.611402338</v>
-      </c>
-      <c r="D93" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E93" s="4">
-        <v>1.763593709</v>
-      </c>
-      <c r="F93" s="4">
-        <v>1.755295313</v>
-      </c>
-      <c r="G93" s="4">
-        <v>2.4203431910000002</v>
-      </c>
-      <c r="H93" s="4">
-        <v>0.98041224289999995</v>
-      </c>
-      <c r="I93" s="4">
-        <v>10.53512117</v>
-      </c>
+      <c r="A93" s="7"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" s="4">
-        <v>1</v>
-      </c>
-      <c r="C94" s="4">
-        <v>1.0384631950000001</v>
-      </c>
-      <c r="D94" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E94" s="4">
-        <v>1.0114973949999999</v>
-      </c>
-      <c r="F94" s="4">
-        <v>1.0114655669999999</v>
-      </c>
-      <c r="G94" s="4">
-        <v>1.025145988</v>
-      </c>
-      <c r="H94" s="4">
-        <v>1.0005429480000001</v>
-      </c>
-      <c r="I94" s="4">
-        <v>1.062712382</v>
-      </c>
+      <c r="A94" s="7"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="4">
-        <v>1</v>
-      </c>
-      <c r="C95" s="4">
-        <v>6.3156820160000002</v>
-      </c>
-      <c r="D95" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E95" s="4">
-        <v>1.339226759</v>
-      </c>
-      <c r="F95" s="4">
-        <v>1.668831451</v>
-      </c>
-      <c r="G95" s="4">
-        <v>3.0816681149999998</v>
-      </c>
-      <c r="H95" s="4">
-        <v>0.97630321460000002</v>
-      </c>
-      <c r="I95" s="4">
-        <v>15.156342309999999</v>
-      </c>
+      <c r="A95" s="7"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="4">
-        <v>1</v>
-      </c>
-      <c r="C96" s="4">
-        <v>4.4021628499999998</v>
-      </c>
-      <c r="D96" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E96" s="4">
-        <v>1.292239186</v>
-      </c>
-      <c r="F96" s="4">
-        <v>1.22264631</v>
-      </c>
-      <c r="G96" s="4">
-        <v>1.2508905850000001</v>
-      </c>
-      <c r="H96" s="4">
-        <v>0.4965648855</v>
-      </c>
-      <c r="I96" s="4">
-        <v>5.4096692109999998</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" s="4">
-        <v>1</v>
-      </c>
-      <c r="C97" s="4">
-        <v>4.8951824469999998</v>
-      </c>
-      <c r="D97" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E97" s="4">
-        <v>1.5066181729999999</v>
-      </c>
-      <c r="F97" s="4">
-        <v>1.4670880040000001</v>
-      </c>
-      <c r="G97" s="4">
-        <v>2.4805032200000001</v>
-      </c>
-      <c r="H97" s="4">
-        <v>1.094800859</v>
-      </c>
-      <c r="I97" s="4">
-        <v>16.034283330000001</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B98" s="4">
-        <v>1</v>
-      </c>
-      <c r="C98" s="4">
-        <v>2.6383948689999999</v>
-      </c>
-      <c r="D98" s="4" t="e">
-        <f>D72/B72</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E98" s="4">
-        <v>1.1303262650000001</v>
-      </c>
-      <c r="F98" s="4">
-        <v>1.13598344</v>
-      </c>
-      <c r="G98" s="4">
-        <v>1.8034949870000001</v>
-      </c>
-      <c r="H98" s="4">
-        <v>0.99599386050000005</v>
-      </c>
-      <c r="I98" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
+      <c r="A98" s="11"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B99" s="4">
-        <f>SUM(B80:B98)/19</f>
-        <v>1</v>
-      </c>
-      <c r="C99" s="4" t="e">
-        <f t="shared" ref="C99:H99" si="10">SUM(C80:C98)/19</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A99" s="11"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="4">
-        <f t="shared" si="10"/>
-        <v>1.1174623462947371</v>
-      </c>
-      <c r="F99" s="4">
-        <f t="shared" si="10"/>
-        <v>1.1530452620684211</v>
-      </c>
-      <c r="G99" s="4">
-        <f t="shared" si="10"/>
-        <v>3.7991501938684205</v>
-      </c>
-      <c r="H99" s="4">
-        <f t="shared" si="10"/>
-        <v>0.98008090530526326</v>
-      </c>
-      <c r="I99" s="4">
-        <f>SUM(I80:I97)/18</f>
-        <v>15.130941131666667</v>
-      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="4"/>
@@ -3722,7 +3731,7 @@
       <c r="I103" s="4"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="10"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
